--- a/Thesis/EvalData/TableAndDifWithoutZ3AndWithoutDupes.xlsx
+++ b/Thesis/EvalData/TableAndDifWithoutZ3AndWithoutDupes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2873a1bc7ca8505/BachelorThesis/Thesis/EvalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B13AE2D-1CCD-48FA-B609-21FBFCA8846D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F68BEA41-13CB-414F-B19C-92DF8C6B2026}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38910" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,17 +203,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -548,18 +538,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="6" width="34.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1459,6 +1450,16 @@
       </c>
       <c r="I31">
         <v>206860288</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>SUM(C4:C31)/1000000000</f>
+        <v>216.89866123499999</v>
+      </c>
+      <c r="G33">
+        <f>SUM(G4:G31)/1000000000</f>
+        <v>457.61236820699997</v>
       </c>
     </row>
   </sheetData>
